--- a/Solution_recipes/Biochemistry_solutions/5X_Titin-buffer.xlsx
+++ b/Solution_recipes/Biochemistry_solutions/5X_Titin-buffer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82E4D2-6F7A-4DF7-BEBA-F6440BB6395C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82E4D2-6F7A-4DF7-BEBA-F6440BB6395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96F58327-1853-4573-BD34-A5EE02F45ABF}"/>
   </bookViews>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1083,28 +1094,28 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X19" sqref="X19:Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.8125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.43359375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.46875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.04296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.97265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.97265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.73828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.14453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>16</v>
       </c>
@@ -1139,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1183,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="27"/>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1232,7 @@
       </c>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1281,7 @@
       </c>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1318,8 +1329,8 @@
       </c>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:15" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1341,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1354,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="28"/>
       <c r="C9" s="21"/>
@@ -1352,7 +1363,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="28"/>
       <c r="C10" s="21"/>
@@ -1361,7 +1372,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>25</v>
       </c>
@@ -1372,7 +1383,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="28"/>
       <c r="C12" s="21"/>
@@ -1381,7 +1392,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="29"/>
       <c r="C13" s="21"/>
@@ -1390,55 +1401,55 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
